--- a/handlers/users/projectFiles/empty_report/original_report.xlsx
+++ b/handlers/users/projectFiles/empty_report/original_report.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\reportBot\projectFiles\empty_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\reportBot\handlers\users\projectFiles\empty_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE14FAD5-E5AF-49DA-9478-8AC2FE978EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC03057-AF60-4766-B75C-B595A04454D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -533,40 +533,43 @@
     <xf numFmtId="20" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,8 +578,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -584,19 +587,25 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -874,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -899,64 +908,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="76.5" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="42" customHeight="1">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="22"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22"/>
+      <c r="G2" s="25"/>
       <c r="H2" s="31"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="31"/>
-      <c r="L2" s="22"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A4" s="32"/>
-      <c r="B4" s="24" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="26" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -991,8 +1000,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" customHeight="1">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1025,8 +1034,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="63" customHeight="1">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1059,8 +1068,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="39.75" customHeight="1">
-      <c r="A7" s="32"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
         <v>19</v>
@@ -1089,8 +1098,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="67.5" customHeight="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1125,8 +1134,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1159,8 +1168,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="47.25" customHeight="1">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1193,8 +1202,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="49.5" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1227,125 +1236,125 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="42" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="24" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="24" t="s">
+      <c r="E12" s="25"/>
+      <c r="F12" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A13" s="32"/>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="24" t="s">
+      <c r="E13" s="25"/>
+      <c r="F13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="24" t="s">
+      <c r="J13" s="25"/>
+      <c r="K13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="41">
         <f>F14/24</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="22"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="6">
         <f>57*4.7</f>
         <v>267.90000000000003</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="22"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" ht="36" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
     </row>
     <row r="16" spans="1:12" ht="48" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="39"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="1:12" ht="51.75" customHeight="1">
-      <c r="A17" s="33"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1354,11 +1363,11 @@
       <c r="E17" s="10"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" ht="25.5" customHeight="1">
       <c r="A18" s="4" t="s">
@@ -1370,400 +1379,659 @@
       <c r="C18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" ht="25.5" customHeight="1">
       <c r="A19" s="11">
         <v>1</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
     </row>
     <row r="20" spans="1:12" ht="25.5" customHeight="1">
       <c r="A20" s="11">
         <v>2</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="1:12" ht="25.5" customHeight="1">
       <c r="A21" s="11">
         <v>3</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
     </row>
     <row r="22" spans="1:12" ht="25.5" customHeight="1">
       <c r="A22" s="11">
         <v>4</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
     </row>
     <row r="23" spans="1:12" ht="25.5" customHeight="1">
       <c r="A23" s="11">
         <v>5</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="25"/>
     </row>
     <row r="24" spans="1:12" ht="25.5" customHeight="1">
       <c r="A24" s="11">
         <v>6</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" ht="25.5" customHeight="1">
       <c r="A25" s="11">
         <v>7</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="25.5" customHeight="1">
       <c r="A26" s="11">
         <v>8</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="25.5" customHeight="1">
       <c r="A27" s="11">
         <v>9</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="25.5" customHeight="1">
       <c r="A28" s="11">
         <v>10</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:12" ht="21.75" customHeight="1">
+      <c r="C28" s="48"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="50"/>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" customHeight="1">
       <c r="A29" s="5">
         <v>11</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B29" s="18"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="50"/>
+    </row>
+    <row r="30" spans="1:12" ht="25.5" customHeight="1">
       <c r="A30" s="5">
         <v>12</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="47"/>
-    </row>
-    <row r="31" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B30" s="18"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="50"/>
+    </row>
+    <row r="31" spans="1:12" ht="25.5" customHeight="1">
       <c r="A31" s="5">
         <v>13</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="47"/>
-    </row>
-    <row r="32" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B31" s="18"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="50"/>
+    </row>
+    <row r="32" spans="1:12" ht="25.5" customHeight="1">
       <c r="A32" s="5">
         <v>14</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="47"/>
-    </row>
-    <row r="33" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B32" s="18"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="50"/>
+    </row>
+    <row r="33" spans="1:12" ht="25.5" customHeight="1">
       <c r="A33" s="5">
         <v>15</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="47"/>
-    </row>
-    <row r="34" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B33" s="18"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="50"/>
+    </row>
+    <row r="34" spans="1:12" ht="25.5" customHeight="1">
       <c r="A34" s="5">
         <v>16</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" ht="26.25" customHeight="1">
+      <c r="B34" s="18"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="1:12" ht="25.5" customHeight="1">
       <c r="A35" s="5">
         <v>17</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" ht="26.25" customHeight="1">
+      <c r="B35" s="18"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="50"/>
+    </row>
+    <row r="36" spans="1:12" ht="25.5" customHeight="1">
       <c r="A36" s="5">
         <v>18</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" ht="26.25" customHeight="1">
+      <c r="B36" s="18"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="50"/>
+    </row>
+    <row r="37" spans="1:12" ht="25.5" customHeight="1">
       <c r="A37" s="5">
         <v>19</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
-    </row>
-    <row r="38" spans="1:12" ht="22.8" customHeight="1">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="50"/>
+    </row>
+    <row r="38" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A38" s="11">
+        <v>20</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A39" s="11">
+        <v>21</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A40" s="11">
+        <v>22</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A41" s="11">
+        <v>23</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" ht="25.5" customHeight="1">
+      <c r="A42" s="11">
+        <v>24</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A43" s="5">
+        <v>25</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A44" s="5">
+        <v>26</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+    </row>
+    <row r="45" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A45" s="5">
+        <v>27</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+    </row>
+    <row r="46" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A46" s="5">
+        <v>28</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A47" s="5">
+        <v>29</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+    </row>
+    <row r="48" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A48" s="5">
+        <v>30</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A49" s="5">
+        <v>31</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A50" s="5">
+        <v>32</v>
+      </c>
+      <c r="B50" s="16"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
+    </row>
+    <row r="51" spans="1:12" ht="26.25" customHeight="1">
+      <c r="A51" s="5">
+        <v>33</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:12" ht="22.8" customHeight="1">
+      <c r="A52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
-    </row>
-    <row r="39" spans="1:12" ht="20.399999999999999" customHeight="1">
-      <c r="A39" s="5">
+      <c r="B52" s="15"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:12" ht="20.399999999999999" customHeight="1">
+      <c r="A53" s="5">
         <v>1</v>
       </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" ht="20.399999999999999" customHeight="1">
-      <c r="A40" s="5">
+      <c r="B53" s="5"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" ht="20.399999999999999" customHeight="1">
+      <c r="A54" s="5">
         <v>2</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-    </row>
-    <row r="41" spans="1:12" ht="20.399999999999999" customHeight="1">
-      <c r="A41" s="5">
+      <c r="B54" s="13"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" ht="20.399999999999999" customHeight="1">
+      <c r="A55" s="5">
         <v>3</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="71">
+    <mergeCell ref="C37:L37"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C33:L33"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C35:L35"/>
+    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="C53:L53"/>
+    <mergeCell ref="C43:L43"/>
+    <mergeCell ref="C20:L20"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="C39:L39"/>
+    <mergeCell ref="C49:L49"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C27:L27"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C29:L29"/>
     <mergeCell ref="C30:L30"/>
     <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C33:L33"/>
-    <mergeCell ref="C27:L27"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="C23:L23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C21:L21"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="C55:L55"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="H15:L16"/>
+    <mergeCell ref="C48:L48"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C52:L52"/>
+    <mergeCell ref="C38:L38"/>
+    <mergeCell ref="C51:L51"/>
+    <mergeCell ref="C54:L54"/>
     <mergeCell ref="A3:A11"/>
-    <mergeCell ref="C36:L36"/>
+    <mergeCell ref="C50:L50"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C42:L42"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="C19:L19"/>
     <mergeCell ref="A15:A17"/>
@@ -1772,41 +2040,20 @@
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C26:L26"/>
+    <mergeCell ref="C40:L40"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C22:L22"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="C23:L23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C44:L44"/>
+    <mergeCell ref="C45:L45"/>
+    <mergeCell ref="C46:L46"/>
+    <mergeCell ref="C47:L47"/>
     <mergeCell ref="C41:L41"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C18:L18"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="H15:L16"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C38:L38"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C37:L37"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C21:L21"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="C39:L39"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="C20:L20"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C35:L35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="34" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
